--- a/resources/features.xlsx
+++ b/resources/features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessedecker/DataScience/Projects/tw_net/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessedecker/Mercyhurst/CIS_572/final/tw_net/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB959F2B-6B26-474C-9594-7F18E99BA132}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCB5EA2-C1DA-4E46-B7C0-5BEE95BEDF86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="4400" windowWidth="25820" windowHeight="15440" xr2:uid="{8734DA11-6BEB-3942-8FF0-422E43E44FD2}"/>
+    <workbookView xWindow="1540" yWindow="1680" windowWidth="25820" windowHeight="15440" xr2:uid="{8734DA11-6BEB-3942-8FF0-422E43E44FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Determine Unluence" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
   <si>
     <t>created_at</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>place</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +254,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -264,12 +273,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E042E0D9-94B9-6540-8D4D-3DA4C27BCD65}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,9 +608,10 @@
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -619,8 +630,11 @@
       <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -636,8 +650,9 @@
       <c r="F2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -653,8 +668,9 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -668,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -679,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -693,7 +709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -704,7 +720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -714,8 +730,9 @@
       <c r="E8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -725,8 +742,9 @@
       <c r="E9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -739,13 +757,14 @@
       <c r="F10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -758,8 +777,9 @@
       <c r="F12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -772,8 +792,9 @@
       <c r="F13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -786,8 +807,9 @@
       <c r="F14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -800,8 +822,9 @@
       <c r="F15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -814,47 +837,40 @@
       <c r="F16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>36</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
@@ -863,31 +879,34 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
       <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
@@ -896,34 +915,34 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>28</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>37</v>
@@ -932,14 +951,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
         <v>37</v>
       </c>
       <c r="E27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -958,7 +988,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/resources/features.xlsx
+++ b/resources/features.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessedecker/Mercyhurst/CIS_572/final/tw_net/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCB5EA2-C1DA-4E46-B7C0-5BEE95BEDF86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EABF6EA-32E3-D44A-B05C-B908F44B41FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1680" windowWidth="25820" windowHeight="15440" xr2:uid="{8734DA11-6BEB-3942-8FF0-422E43E44FD2}"/>
+    <workbookView xWindow="1540" yWindow="460" windowWidth="25820" windowHeight="17540" activeTab="2" xr2:uid="{8734DA11-6BEB-3942-8FF0-422E43E44FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Determine Unluence" sheetId="1" r:id="rId1"/>
     <sheet name="Measure Influence" sheetId="2" r:id="rId2"/>
+    <sheet name="Feature Extraction" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="114">
   <si>
     <t>created_at</t>
   </si>
@@ -112,9 +113,6 @@
     <t>content</t>
   </si>
   <si>
-    <t>metedata</t>
-  </si>
-  <si>
     <t>string id</t>
   </si>
   <si>
@@ -212,13 +210,172 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>id_str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hashtags </t>
+  </si>
+  <si>
+    <t xml:space="preserve">media                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">symbols </t>
+  </si>
+  <si>
+    <t>user_mentions</t>
+  </si>
+  <si>
+    <t>calltime</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>place_names</t>
+  </si>
+  <si>
+    <t>place_ids</t>
+  </si>
+  <si>
+    <t>user_id_str</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>user_description</t>
+  </si>
+  <si>
+    <t>user_created_at</t>
+  </si>
+  <si>
+    <t>user_location</t>
+  </si>
+  <si>
+    <t>favorites_counts</t>
+  </si>
+  <si>
+    <t>profile_background_color</t>
+  </si>
+  <si>
+    <t>profile_text_color</t>
+  </si>
+  <si>
+    <t>profile_use_background_image</t>
+  </si>
+  <si>
+    <t>user_screen_name</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>current datatype</t>
+  </si>
+  <si>
+    <t>new datatype</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>look for relationship and weigh</t>
+  </si>
+  <si>
+    <t>conversion</t>
+  </si>
+  <si>
+    <t>make word/char grams</t>
+  </si>
+  <si>
+    <t>count occurrences</t>
+  </si>
+  <si>
+    <t>if new, it would always be 0</t>
+  </si>
+  <si>
+    <t>Remove non-english and drop</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>don't need both</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>bool to binary</t>
+  </si>
+  <si>
+    <t>is there a relationship between time on twitter and influence</t>
+  </si>
+  <si>
+    <t>categorize by years on tw</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>new tweets can't be quoted</t>
+  </si>
+  <si>
+    <t>column is 'isReply'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would require extra API calls </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Description is repeated</t>
+  </si>
+  <si>
+    <t>No use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Becomes max interval </t>
+  </si>
+  <si>
+    <t>Convert to day of week</t>
+  </si>
+  <si>
+    <t>created_time</t>
+  </si>
+  <si>
+    <t>int/1-7</t>
+  </si>
+  <si>
+    <t>created_dotw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,8 +391,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,13 +421,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,13 +456,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E042E0D9-94B9-6540-8D4D-3DA4C27BCD65}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,9 +797,10 @@
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -622,19 +811,22 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -642,17 +834,17 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -668,9 +860,9 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -683,8 +875,9 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -694,8 +887,9 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -708,8 +902,9 @@
       <c r="F6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -719,263 +914,281 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+      <c r="F21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="C22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
         <v>31</v>
       </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>
       </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862FAC73-DD4A-864C-93E9-709F0B0BE1E7}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -999,152 +1212,730 @@
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475C66E1-874B-6F43-B557-C0B8216F8595}">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="54" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
+      <c r="A2" t="s">
+        <v>61</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8">
-        <v>0.05</v>
-      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/features.xlsx
+++ b/resources/features.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessedecker/Mercyhurst/CIS_572/final/tw_net/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE407C93-6D23-E84A-B7D0-3F8DF3D2B30C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935EAA48-04FE-214A-A922-0F656B66119A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="7960" windowWidth="30620" windowHeight="18860" activeTab="2" xr2:uid="{8734DA11-6BEB-3942-8FF0-422E43E44FD2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{8734DA11-6BEB-3942-8FF0-422E43E44FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Determine Unluence" sheetId="1" r:id="rId1"/>
     <sheet name="Measure Influence" sheetId="2" r:id="rId2"/>
     <sheet name="Feature Extraction" sheetId="3" r:id="rId3"/>
+    <sheet name="Feature Set" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="150">
   <si>
     <t>created_at</t>
   </si>
@@ -155,6 +156,9 @@
     <t>user</t>
   </si>
   <si>
+    <t>count</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -381,6 +385,99 @@
   </si>
   <si>
     <t>Process similar to  text?</t>
+  </si>
+  <si>
+    <t>created_hr</t>
+  </si>
+  <si>
+    <t>user_since</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>num_tags</t>
+  </si>
+  <si>
+    <t>num_media</t>
+  </si>
+  <si>
+    <t>num_symbols</t>
+  </si>
+  <si>
+    <t>num_urls</t>
+  </si>
+  <si>
+    <t>num_user_mentions</t>
+  </si>
+  <si>
+    <t>influence_interval</t>
+  </si>
+  <si>
+    <t>bigrams', 'trigrams', 'quadgrams', 'ch_trigram', 'ch_quadgram',</t>
+  </si>
+  <si>
+    <t>'bigrams_user_name', 'trigrams_user_name', 'quadgrams_user_name',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'ch_trigram_user_name', 'ch_quadgram_user_name',</t>
+  </si>
+  <si>
+    <t>'bigrams_user_description', 'trigrams_user_description',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'quadgrams_user_description', 'ch_trigram_user_description',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'ch_quadgram_user_description',</t>
+  </si>
+  <si>
+    <t>'bigrams_user_screen_name',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'trigrams_user_screen_name', 'quadgrams_user_screen_name',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'ch_trigram_user_screen_name', 'ch_quadgram_user_screen_name',</t>
+  </si>
+  <si>
+    <t>dotw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isReply </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isVerified </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isRetweeted </t>
+  </si>
+  <si>
+    <t>1 to 7</t>
+  </si>
+  <si>
+    <t>0 to 4</t>
+  </si>
+  <si>
+    <t>0 to 23</t>
+  </si>
+  <si>
+    <t>0+</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
@@ -475,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -491,6 +588,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,7 +907,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,16 +928,16 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -849,7 +948,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -918,7 +1017,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -930,7 +1029,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -942,34 +1041,34 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -993,7 +1092,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1029,7 +1128,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1044,7 +1143,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1092,7 +1191,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -1113,10 +1212,10 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -1125,10 +1224,10 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -1137,10 +1236,10 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -1149,10 +1248,10 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E27" s="3"/>
     </row>
@@ -1161,10 +1260,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -1173,16 +1272,16 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1216,7 +1315,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1238,19 +1337,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1261,13 +1360,13 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>0.25</v>
@@ -1278,13 +1377,13 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>0.5</v>
@@ -1296,16 +1395,16 @@
         <v>37</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1316,13 +1415,13 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>0.05</v>
@@ -1333,13 +1432,13 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6">
         <v>0.05</v>
@@ -1350,13 +1449,13 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>0.05</v>
@@ -1367,13 +1466,13 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>0.05</v>
@@ -1381,16 +1480,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9">
         <v>0.05</v>
@@ -1398,7 +1497,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1431,9 +1530,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475C66E1-874B-6F43-B557-C0B8216F8595}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1451,22 +1550,22 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1474,13 +1573,13 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -1492,58 +1591,58 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -1552,106 +1651,106 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -1660,13 +1759,13 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -1675,49 +1774,49 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -1729,13 +1828,13 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G19" s="3"/>
     </row>
@@ -1747,10 +1846,10 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G20" s="3"/>
     </row>
@@ -1762,10 +1861,10 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G21" s="3"/>
     </row>
@@ -1777,10 +1876,10 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -1792,13 +1891,13 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -1810,13 +1909,13 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" s="8"/>
     </row>
@@ -1828,19 +1927,19 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -1849,19 +1948,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -1870,49 +1969,49 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
         <v>90</v>
-      </c>
-      <c r="E30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" t="s">
-        <v>89</v>
       </c>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -1921,13 +2020,13 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -1936,13 +2035,13 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -1951,13 +2050,13 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -1966,22 +2065,22 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G37" s="8"/>
     </row>
@@ -1995,16 +2094,16 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G39" s="3"/>
     </row>
@@ -2016,15 +2115,231 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G40" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA933A2F-0678-7947-A704-1A1C4472C7DF}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="66.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/features.xlsx
+++ b/resources/features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessedecker/Mercyhurst/CIS_572/final/tw_net/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935EAA48-04FE-214A-A922-0F656B66119A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08127D3-4B80-B04A-98BF-19A4BFF5A656}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{8734DA11-6BEB-3942-8FF0-422E43E44FD2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Determine Unluence" sheetId="1" r:id="rId1"/>
     <sheet name="Measure Influence" sheetId="2" r:id="rId2"/>
     <sheet name="Feature Extraction" sheetId="3" r:id="rId3"/>
-    <sheet name="Feature Set" sheetId="4" r:id="rId4"/>
+    <sheet name="Model" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="148">
   <si>
     <t>created_at</t>
   </si>
@@ -426,12 +426,6 @@
     <t>bigrams', 'trigrams', 'quadgrams', 'ch_trigram', 'ch_quadgram',</t>
   </si>
   <si>
-    <t>'bigrams_user_name', 'trigrams_user_name', 'quadgrams_user_name',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       'ch_trigram_user_name', 'ch_quadgram_user_name',</t>
-  </si>
-  <si>
     <t>'bigrams_user_description', 'trigrams_user_description',</t>
   </si>
   <si>
@@ -441,15 +435,6 @@
     <t xml:space="preserve">       'ch_quadgram_user_description',</t>
   </si>
   <si>
-    <t>'bigrams_user_screen_name',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       'trigrams_user_screen_name', 'quadgrams_user_screen_name',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       'ch_trigram_user_screen_name', 'ch_quadgram_user_screen_name',</t>
-  </si>
-  <si>
     <t>dotw</t>
   </si>
   <si>
@@ -478,6 +463,15 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>Remove - None are retweets</t>
+  </si>
+  <si>
+    <t>Sunday = 1</t>
+  </si>
+  <si>
+    <t>Midnight = 0</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1309,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2132,11 +2126,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA933A2F-0678-7947-A704-1A1C4472C7DF}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2166,10 +2160,10 @@
         <v>130</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2177,21 +2171,27 @@
         <v>119</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2202,7 +2202,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2213,7 +2213,7 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2224,7 +2224,7 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2235,7 +2235,7 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2246,40 +2246,43 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>143</v>
+      <c r="A10" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2290,7 +2293,7 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2302,43 +2305,24 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="13"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/resources/features.xlsx
+++ b/resources/features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessedecker/Mercyhurst/CIS_572/final/tw_net/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08127D3-4B80-B04A-98BF-19A4BFF5A656}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9077052-A10C-AC4A-A9CA-8F1386CB8F96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{8734DA11-6BEB-3942-8FF0-422E43E44FD2}"/>
+    <workbookView xWindow="10280" yWindow="3880" windowWidth="30620" windowHeight="18860" activeTab="3" xr2:uid="{8734DA11-6BEB-3942-8FF0-422E43E44FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Determine Unluence" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="159">
   <si>
     <t>created_at</t>
   </si>
@@ -444,9 +444,6 @@
     <t xml:space="preserve">isVerified </t>
   </si>
   <si>
-    <t xml:space="preserve">isRetweeted </t>
-  </si>
-  <si>
     <t>1 to 7</t>
   </si>
   <si>
@@ -465,13 +462,49 @@
     <t>category</t>
   </si>
   <si>
-    <t>Remove - None are retweets</t>
-  </si>
-  <si>
     <t>Sunday = 1</t>
   </si>
   <si>
     <t>Midnight = 0</t>
+  </si>
+  <si>
+    <t>Number of years the user has been active</t>
+  </si>
+  <si>
+    <t>1 = the tweet is a reply to another tweet</t>
+  </si>
+  <si>
+    <t>1 = the user is verified</t>
+  </si>
+  <si>
+    <t>number retweets</t>
+  </si>
+  <si>
+    <t>number favorites</t>
+  </si>
+  <si>
+    <t>number hashtags in tweet</t>
+  </si>
+  <si>
+    <t>number symbols in tweet</t>
+  </si>
+  <si>
+    <t>number media in tweet</t>
+  </si>
+  <si>
+    <t>number urls in tweet</t>
+  </si>
+  <si>
+    <t>number users mentioned in tweet</t>
+  </si>
+  <si>
+    <t>each interval = 2 hrs. add to created_hr to find time of day</t>
+  </si>
+  <si>
+    <t>isRetweeted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 = the tweet has been retweeted </t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1342,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2126,11 +2159,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA933A2F-0678-7947-A704-1A1C4472C7DF}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2138,7 +2171,7 @@
     <col min="1" max="1" width="66.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2160,10 +2193,13 @@
         <v>130</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2171,13 +2207,13 @@
         <v>119</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2185,13 +2221,13 @@
         <v>135</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
         <v>144</v>
-      </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2202,7 +2238,10 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2213,7 +2252,10 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2224,7 +2266,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2235,7 +2280,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2246,43 +2294,52 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>138</v>
+      <c r="A10" t="s">
+        <v>137</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2293,35 +2350,66 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>134</v>
       </c>
     </row>

--- a/resources/features.xlsx
+++ b/resources/features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessedecker/Mercyhurst/CIS_572/final/tw_net/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9077052-A10C-AC4A-A9CA-8F1386CB8F96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06233EFC-9E8B-E841-87B2-48C5A814B991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10280" yWindow="3880" windowWidth="30620" windowHeight="18860" activeTab="3" xr2:uid="{8734DA11-6BEB-3942-8FF0-422E43E44FD2}"/>
   </bookViews>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2163,7 +2163,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/resources/features.xlsx
+++ b/resources/features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessedecker/Mercyhurst/CIS_572/final/tw_net/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06233EFC-9E8B-E841-87B2-48C5A814B991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD4169B-294A-8E49-B99F-13817A006449}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="3880" windowWidth="30620" windowHeight="18860" activeTab="3" xr2:uid="{8734DA11-6BEB-3942-8FF0-422E43E44FD2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{8734DA11-6BEB-3942-8FF0-422E43E44FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Determine Unluence" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Feature Extraction" sheetId="3" r:id="rId3"/>
     <sheet name="Model" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="164">
   <si>
     <t>created_at</t>
   </si>
@@ -505,6 +505,21 @@
   </si>
   <si>
     <t xml:space="preserve">1 = the tweet has been retweeted </t>
+  </si>
+  <si>
+    <t>influence_score</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>composite score of 2 or more attributes</t>
+  </si>
+  <si>
+    <t>Too much impact on score</t>
+  </si>
+  <si>
+    <t>Can be controlled by user</t>
   </si>
 </sst>
 </file>
@@ -610,13 +625,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E042E0D9-94B9-6540-8D4D-3DA4C27BCD65}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1235,103 +1250,31 @@
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="3"/>
+      <c r="A24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="3"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A31:E33"/>
+    <mergeCell ref="A24:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1341,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862FAC73-DD4A-864C-93E9-709F0B0BE1E7}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1350,9 +1293,9 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1417,7 +1360,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
@@ -1438,7 +1381,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C5" t="s">
@@ -1452,6 +1395,9 @@
       </c>
       <c r="F5">
         <v>0.05</v>
+      </c>
+      <c r="G5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1472,7 +1418,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C7" t="s">
@@ -1486,6 +1432,9 @@
       </c>
       <c r="F7">
         <v>0.05</v>
+      </c>
+      <c r="G7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1504,9 +1453,12 @@
       <c r="F8">
         <v>0.05</v>
       </c>
+      <c r="G8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C9" t="s">
@@ -1521,29 +1473,32 @@
       <c r="F9">
         <v>0.05</v>
       </c>
+      <c r="G9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1559,7 +1514,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1947,7 +1902,7 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2161,9 +2116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA933A2F-0678-7947-A704-1A1C4472C7DF}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2188,65 +2143,65 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" t="s">
-        <v>145</v>
+    <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
+        <v>135</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -2255,12 +2210,12 @@
         <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -2269,12 +2224,12 @@
         <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -2282,13 +2237,13 @@
       <c r="C8" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>154</v>
+      <c r="D8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -2297,26 +2252,26 @@
         <v>141</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -2325,12 +2280,12 @@
         <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -2339,26 +2294,26 @@
         <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
@@ -2367,12 +2322,12 @@
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -2381,19 +2336,30 @@
         <v>141</v>
       </c>
       <c r="D15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
